--- a/문서/Event.xlsx
+++ b/문서/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFFC15-999E-4232-863B-C6B997BBDCDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29622FCF-A54D-4814-A536-D3AE98FDD2A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1954,108 +1954,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sub_2_str</t>
+  </si>
+  <si>
+    <t>sub_2_str_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 모험가가 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정을 밟았습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_3_type</t>
+  </si>
+  <si>
+    <t>sub_3_cons</t>
+  </si>
+  <si>
+    <t>sub_3_str</t>
+  </si>
+  <si>
+    <t>sub_3_str_end</t>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_1_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_2_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_3_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가를 돕습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정을 피하고, 함정에 빠진 모험가의 가방을 뒤집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가가 답례로 아이템을 줍니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇몇 아이템을 찾을 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가를 공격합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정에 걸려들어버렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가는 처치했지만 반격을 받았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두가 피해를 입어버렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료중 한명이 희생했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료는 피해를 받았지만 나머지는 괜찮습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sub_2_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sub_2_cons</t>
-  </si>
-  <si>
-    <t>sub_2_str</t>
-  </si>
-  <si>
-    <t>sub_2_str_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 모험가가 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함정을 밟았습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_3_type</t>
-  </si>
-  <si>
-    <t>sub_3_cons</t>
-  </si>
-  <si>
-    <t>sub_3_str</t>
-  </si>
-  <si>
-    <t>sub_3_str_end</t>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_1_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_2_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_3_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가를 돕습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함정을 피하고, 함정에 빠진 모험가의 가방을 뒤집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가가 답례로 아이템을 줍니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇몇 아이템을 찾을 수 있었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가를 공격합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함정에 걸려들어버렸습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가는 처치했지만 반격을 받았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두가 피해를 입어버렸습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동료중 한명이 희생했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동료는 피해를 받았지만 나머지는 괜찮습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2122,14 +2124,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2446,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66E1-CB7D-4233-B556-6D735492FA9A}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2475,239 +2471,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
       <c r="E2">
         <v>11201</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3">
         <v>11201</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>12</v>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
       </c>
       <c r="P3">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/문서/Event.xlsx
+++ b/문서/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29622FCF-A54D-4814-A536-D3AE98FDD2A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BBEB07-70A2-4880-BD1B-46466575736F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
   </bookViews>
@@ -2049,15 +2049,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동료는 피해를 받았지만 나머지는 괜찮습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub_2_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sub_2_cons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료 {name} 이 피해를 입었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2444,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66E1-CB7D-4233-B556-6D735492FA9A}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2496,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -2620,7 +2620,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Event.xlsx
+++ b/문서/Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BBEB07-70A2-4880-BD1B-46466575736F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE75B90-2E23-40B3-956A-BBE47C48E255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
   </bookViews>
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2058,6 +2058,134 @@
   </si>
   <si>
     <t>동료 {name} 이 피해를 입었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이 가봅니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손을 흔듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형체가 무언가를 놓고 갔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대도 같이 손을 흔들며, 자리에 무언가를 남겨 두었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락 욕을 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가에게 아주 약한 저주를 받았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀리서 움직이는 형체가 있습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희생의 방에 갇혔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선발대의 야영지를 발견했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약품을 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 포션을 하나 찾았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문서를 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 강화 주문서를 찾았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 주문서를 찾았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한명을 강제로 희생합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한명이 자발적으로 희생합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 입고 탈출할 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 피해를 입고 탈출할 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두가 피를 흘립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자한 상인을 만났습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사를 건넵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인은 웃으며 포션을 건넵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인의 물건을 훔칩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건을 훔치려던 동료는 상인에게 베였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 지불하고 주문서를 구매합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈은 필요 없다며 주문서를 그냥 줍니다. 정말 인자하군요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복의 샘에 도착했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복의 샘을 담습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘이 거의 말랐습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘의 물을 어느정도 담았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘이 넘쳐 흐릅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2442,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66E1-CB7D-4233-B556-6D735492FA9A}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2623,6 +2751,286 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>11202</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>11201</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>11201</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>11202</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>11203</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>11201</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>11203</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>11201</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>11201</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>11201</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/Event.xlsx
+++ b/문서/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE75B90-2E23-40B3-956A-BBE47C48E255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5701F504-CC21-4153-AE9A-A57858EC37C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
+    <workbookView xWindow="6330" yWindow="3945" windowWidth="23910" windowHeight="8940" xr2:uid="{39B286C9-71B9-4694-9C15-D0745787CD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B66E1-CB7D-4233-B556-6D735492FA9A}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
